--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value542.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value542.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.00788435650939</v>
+        <v>1.420357823371887</v>
       </c>
       <c r="B1">
-        <v>0.986500277550643</v>
+        <v>1.840587139129639</v>
       </c>
       <c r="C1">
-        <v>1.021254328931057</v>
+        <v>2.057744026184082</v>
       </c>
       <c r="D1">
-        <v>1.364736702166835</v>
+        <v>2.3577880859375</v>
       </c>
       <c r="E1">
-        <v>2.336731779168765</v>
+        <v>2.871772527694702</v>
       </c>
     </row>
   </sheetData>
